--- a/biology/Botanique/Fjellmandel_fra_Oppdal/Fjellmandel_fra_Oppdal.xlsx
+++ b/biology/Botanique/Fjellmandel_fra_Oppdal/Fjellmandel_fra_Oppdal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fjellmandel fra Oppdal (littéralement « Mandel de montagne d'Oppdal ») est une appellation protégée (beskyttet geografisk betegnelse) appliquée depuis 2006 à une production de pomme de terre de la variété 'Mandel', variété traditionnelle cultivée en Scandinavie. Le nom de cette variété se réfère à la forme en amande des tubercules.
@@ -512,9 +524,11 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de production de cette appellation est limitée au territoire de la commune d'Oppdal (région du Trøndelag en Norvège centrale), à une altitude d'au moins 400 mètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production de cette appellation est limitée au territoire de la commune d'Oppdal (région du Trøndelag en Norvège centrale), à une altitude d'au moins 400 mètres.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pommes de terre de l'appellation Fjellmandel fra Oppdal appartiennent à la variété 'Mandel'.
 Il s'agit de pommes de terre de consommation mi-précoces, aux tubercules allongés, légèrement aplatis, à peau  lisse, blanche, présentant parfois des traces de bleu, et à chair jaune.
-Leur teneur en matière sèche est comprise entre 22 et 26 %[1].
+Leur teneur en matière sèche est comprise entre 22 et 26 %.
 </t>
         </is>
       </c>
